--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -641,7 +641,7 @@
 Reference(Medication|4.0.1)</t>
   </si>
   <si>
-    <t>What medication was taken</t>
+    <t>Medication</t>
   </si>
   <si>
     <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$32</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="310">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -637,11 +637,7 @@
     <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Medication|4.0.1)</t>
-  </si>
-  <si>
-    <t>Medication</t>
+    <t>What medication was taken</t>
   </si>
   <si>
     <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
@@ -656,6 +652,13 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -663,6 +666,117 @@
   </si>
   <si>
     <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x]:medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>The current medication being taken</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x]:medicationCodeableConcept.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x]:medicationCodeableConcept.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x]:medicationCodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x]:medicationCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medication[x].text</t>
+  </si>
+  <si>
+    <t>Name or description of the current medication</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationStatement.subject</t>
@@ -1203,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AN32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1212,9 +1326,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.79296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="60.56640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.37890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1240,7 +1354,7 @@
     <col min="26" max="26" width="52.28125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1250,7 +1364,7 @@
     <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="120.65234375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="24.1328125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3083,7 +3197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>195</v>
       </c>
@@ -3102,7 +3216,7 @@
         <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>78</v>
@@ -3111,16 +3225,16 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3149,25 +3263,23 @@
         <v>183</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Z17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>195</v>
@@ -3185,13 +3297,13 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -3199,12 +3311,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3225,15 +3339,17 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3258,13 +3374,13 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -3282,7 +3398,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>89</v>
@@ -3297,24 +3413,24 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3334,16 +3450,16 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3394,7 +3510,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3406,13 +3522,13 @@
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -3423,21 +3539,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -3446,19 +3562,19 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>223</v>
+        <v>138</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3496,40 +3612,40 @@
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -3537,10 +3653,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3551,7 +3667,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3563,16 +3679,20 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -3620,13 +3740,13 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
@@ -3641,10 +3761,10 @@
         <v>231</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="22" hidden="true">
@@ -3652,7 +3772,7 @@
         <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3660,7 +3780,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -3672,10 +3792,10 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>235</v>
@@ -3683,8 +3803,12 @@
       <c r="M22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -3732,7 +3856,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -3750,21 +3874,21 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3772,32 +3896,30 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -3846,13 +3968,13 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -3861,24 +3983,24 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3889,7 +4011,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -3898,20 +4020,18 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -3936,37 +4056,37 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AA24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -3975,13 +4095,13 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -3989,10 +4109,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4003,7 +4123,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4012,19 +4132,19 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4074,13 +4194,13 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -4089,13 +4209,13 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4103,10 +4223,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4117,7 +4237,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4126,16 +4246,16 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4186,13 +4306,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4201,13 +4321,13 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4215,10 +4335,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4229,7 +4349,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4241,17 +4361,15 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4300,13 +4418,13 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
@@ -4318,17 +4436,585 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
       </c>
     </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN27">
+  <autoFilter ref="A1:AN32">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4338,7 +5024,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI26">
+  <conditionalFormatting sqref="A2:AI31">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety MedicationStatement</t>
+    <t>RS MedicationStatement</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS MedicationStatement</t>
+    <t>Road Safety MedicationStatement</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety MedicationStatement</t>
+    <t>RS MedicationStatement</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-medication-statement.xlsx
+++ b/StructureDefinition-rs-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
